--- a/06.Paper Material/Computation_times_list.xlsx
+++ b/06.Paper Material/Computation_times_list.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Computation_times_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
   <si>
     <t>Problem</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>nb variables</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Investment problem</t>
+  </si>
+  <si>
+    <t>Line benefits</t>
+  </si>
+  <si>
+    <t>Relaxed ESOM -reduced</t>
   </si>
 </sst>
 </file>
@@ -386,15 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -472,16 +485,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,16 +499,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>19951</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,16 +513,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>405217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -532,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>4279</v>
+        <v>19951</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>405217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,16 +564,289 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>26497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>945717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>33809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>39292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>677960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2843911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>398408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>1620835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f>2.5*3600*35</f>
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>3791652</v>
       </c>
     </row>
   </sheetData>

--- a/06.Paper Material/Computation_times_list.xlsx
+++ b/06.Paper Material/Computation_times_list.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +493,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5">
+        <v>353</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -506,6 +509,9 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6">
+        <v>99596</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
